--- a/biology/Zoologie/Conus_tenuistriatus/Conus_tenuistriatus.xlsx
+++ b/biology/Zoologie/Conus_tenuistriatus/Conus_tenuistriatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus tenuistriatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 22 mm et 68 mm. La coquille est entièrement entourée de fines stries, qui sont parfois granuleuses. Sa couleur est violacée ou brune, avec quelques taches plus claires sur la flèche, et généralement une bande irrégulière claire sous le milieu du verticille. L'ouverture est violacée. La coquille a plusieurs des caractéristiques de Conus glans Hwass in Bruguière, 1792,[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 22 mm et 68 mm. La coquille est entièrement entourée de fines stries, qui sont parfois granuleuses. Sa couleur est violacée ou brune, avec quelques taches plus claires sur la flèche, et généralement une bande irrégulière claire sous le milieu du verticille. L'ouverture est violacée. La coquille a plusieurs des caractéristiques de Conus glans Hwass in Bruguière, 1792,.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans l'océan Indien (pas dans la mer Rouge) ; des Philippines et de l'Indonésie à la Papouasie-Nouvelle-Guinée, au large de la Polynésie française et des îles Marshall ; au large de l'Australie-Occidentale.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans tout l'ouest et le centre de l'océan Indien mais est absente de la mer Rouge, elle est également présente des Philippines à la Papouasie-Nouvelle-Guinée, en Polynésie française et dans les îles Marshall. Cette espèce est peu commune dans les eaux peu profondes et profondes. Elle est largement distribuée et il n'y a actuellement aucune menace majeure connue. Elle est classée dans la catégorie " préoccupation mineure ". Il s'agit d'une espèce endémique de l'Afrique du Sud[2].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans tout l'ouest et le centre de l'océan Indien mais est absente de la mer Rouge, elle est également présente des Philippines à la Papouasie-Nouvelle-Guinée, en Polynésie française et dans les îles Marshall. Cette espèce est peu commune dans les eaux peu profondes et profondes. Elle est largement distribuée et il n'y a actuellement aucune menace majeure connue. Elle est classée dans la catégorie " préoccupation mineure ". Il s'agit d'une espèce endémique de l'Afrique du Sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_tenuistriatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_tenuistriatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus tenuistriatus a été décrite pour la première fois en 1858 par le naturaliste, illustrateur et conchyliologiste britannique George Brettingham Sowerby II dans « Monograph of the genus Conus »[3],[4].
-Synonymes
-Conus (Leporiconus) tenuistriatus G. B. Sowerby II, 1858 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus tenuistriatus a été décrite pour la première fois en 1858 par le naturaliste, illustrateur et conchyliologiste britannique George Brettingham Sowerby II dans « Monograph of the genus Conus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_tenuistriatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_tenuistriatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Leporiconus) tenuistriatus G. B. Sowerby II, 1858 · appellation alternative
 Conus glans  var. tenuigranulata Dautzenberg, 1937 · non accepté
 Leporiconus tenuistriatus (G. B. Sowerby II, 1858) · non accepté</t>
         </is>
